--- a/ig/messagedefinitions/all-profiles.xlsx
+++ b/ig/messagedefinitions/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1-trial-use</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T09:43:38+00:00</t>
+    <t>2025-09-24T11:33:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
